--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/licai/JingxuanByNewBankCardSuccessful.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/licai/JingxuanByNewBankCardSuccessful.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9345" windowHeight="3585"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9690" windowHeight="2715"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
     <sheet name="comment" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="0"/>
   <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
   <si>
     <t>flag</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -62,10 +62,6 @@
   </si>
   <si>
     <t>amount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>random</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -108,11 +104,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>工商银行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>it789123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建设银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${UserInfoUtils.getBindedCardBank(mobile_num)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${BankCardUtils.getBindedCardUser(${436742121737})}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -471,13 +475,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="12.625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="11.5" customWidth="1"/>
     <col min="8" max="8" width="13.875" customWidth="1"/>
     <col min="9" max="9" width="16.125" customWidth="1"/>
@@ -500,16 +504,16 @@
         <v>10</v>
       </c>
       <c r="F1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" t="s">
         <v>12</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>13</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>14</v>
-      </c>
-      <c r="I1" t="s">
-        <v>15</v>
       </c>
       <c r="J1" t="s">
         <v>2</v>
@@ -523,7 +527,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -538,17 +542,17 @@
         <v>18</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J2" s="2"/>
       <c r="K2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/licai/JingxuanByNewBankCardSuccessful.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/licai/JingxuanByNewBankCardSuccessful.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9690" windowHeight="2715"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12270" windowHeight="2715"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
@@ -112,11 +112,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>${UserInfoUtils.getBindedCardBank(mobile_num)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>${BankCardUtils.getBindedCardUser(${436742121737})}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${UserInfoUtils.getBindedCardUser(mobile_num)}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -476,7 +476,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -527,7 +527,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -542,7 +542,7 @@
         <v>18</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>15</v>

--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/licai/JingxuanByNewBankCardSuccessful.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/licai/JingxuanByNewBankCardSuccessful.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12270" windowHeight="2715"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10140" windowHeight="3705"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
     <sheet name="comment" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
   <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -476,7 +476,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B2" sqref="B2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -533,10 +533,10 @@
         <v>8</v>
       </c>
       <c r="D2">
-        <v>2779</v>
+        <v>1903172</v>
       </c>
       <c r="E2">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="F2" t="s">
         <v>18</v>

--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/licai/JingxuanByNewBankCardSuccessful.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/licai/JingxuanByNewBankCardSuccessful.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10140" windowHeight="3705"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11895" windowHeight="2985"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
@@ -112,11 +112,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>${BankCardUtils.getBindedCardUser(${436742121737})}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>${UserInfoUtils.getBindedCardUser(mobile_num)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${BankCardUtils.getBankCard(436742121737)}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -476,7 +476,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:G2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -527,7 +527,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -542,7 +542,7 @@
         <v>18</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>15</v>

--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/licai/JingxuanByNewBankCardSuccessful.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/licai/JingxuanByNewBankCardSuccessful.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11895" windowHeight="2985"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12555" windowHeight="4635"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>flag</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -117,6 +117,10 @@
   </si>
   <si>
     <t>${BankCardUtils.getBankCard(436742121737)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${FinancePlanUtils.getFinanceId(0)}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -476,7 +480,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -532,8 +536,8 @@
       <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="D2">
-        <v>1903172</v>
+      <c r="D2" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="E2">
         <v>1</v>

--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/licai/JingxuanByNewBankCardSuccessful.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/licai/JingxuanByNewBankCardSuccessful.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12555" windowHeight="4635"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10065" windowHeight="2445"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t>flag</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -73,15 +73,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>validationCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>payPassword</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0615</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -479,16 +471,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="11.5" customWidth="1"/>
-    <col min="8" max="8" width="13.875" customWidth="1"/>
-    <col min="9" max="9" width="16.125" customWidth="1"/>
+    <col min="8" max="8" width="16.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -517,12 +508,9 @@
         <v>13</v>
       </c>
       <c r="I1" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="J1" t="s">
-        <v>2</v>
-      </c>
-      <c r="K1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -531,32 +519,29 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" t="s">
         <v>15</v>
       </c>
-      <c r="I2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" s="2"/>
-      <c r="K2" t="s">
-        <v>16</v>
+      <c r="I2" s="2"/>
+      <c r="J2" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/licai/JingxuanByNewBankCardSuccessful.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/licai/JingxuanByNewBankCardSuccessful.xlsx
@@ -10,7 +10,7 @@
     <sheet name="test" sheetId="1" r:id="rId1"/>
     <sheet name="comment" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="0"/>
   <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
   <si>
     <t>flag</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -31,53 +31,117 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>mobile</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>comment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>校验金额、支付密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建设银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${BankCardUtils.getBankCard(436742121737)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李白</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdCardGenerator.generateUnUsedIdCardNumberByAge(20)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>it7891234</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>password2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>myname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>identity_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>payPassword</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>payPassword2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>amount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bank_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cardNO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>result</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>mobile</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>comment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>校验金额、支付密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>comments</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${UserInfoUtils.getUnregisterMobile()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${RandomUtils.generateUserName()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>it789123</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>amount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bank_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cardNO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>payPassword</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新银行卡购买精选成功</t>
+    <t>it789123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${DebtBatchUtils.getDebtId()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新银行卡购买精选产品成功</t>
     <rPh sb="0" eb="1">
       <t>xin</t>
     </rPh>
@@ -88,31 +152,14 @@
       <t>gou m</t>
     </rPh>
     <rPh sb="6" eb="7">
-      <t>jing xuan</t>
+      <t>tie xin</t>
     </rPh>
     <rPh sb="8" eb="9">
+      <t>ji h</t>
+    </rPh>
+    <rPh sb="10" eb="11">
       <t>cheng g</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>it789123</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>建设银行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${UserInfoUtils.getBindedCardUser(mobile_num)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${BankCardUtils.getBankCard(436742121737)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${FinancePlanUtils.getFinanceId(0)}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -469,10 +516,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -482,66 +529,96 @@
     <col min="8" max="8" width="16.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:16" customFormat="1">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" customFormat="1">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H2" t="s">
         <v>10</v>
       </c>
-      <c r="F1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="I2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2">
+        <v>50000</v>
+      </c>
+      <c r="L2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="2"/>
-      <c r="J2" t="s">
-        <v>14</v>
+      <c r="N2" s="2"/>
+      <c r="O2" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -566,7 +643,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -574,7 +651,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/licai/JingxuanByNewBankCardSuccessful.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/licai/JingxuanByNewBankCardSuccessful.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10065" windowHeight="2445"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9885" windowHeight="6270"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
     <sheet name="comment" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
   <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -134,10 +134,6 @@
   </si>
   <si>
     <t>it789123</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${DebtBatchUtils.getDebtId()}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -160,6 +156,10 @@
     <rPh sb="10" eb="11">
       <t>cheng g</t>
     </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${FinancePlanUtils.getFinanceId(0)}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -518,8 +518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -605,7 +605,7 @@
         <v>10</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K2">
         <v>50000</v>
@@ -618,7 +618,7 @@
       </c>
       <c r="N2" s="2"/>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/licai/JingxuanByNewBankCardSuccessful.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/licai/JingxuanByNewBankCardSuccessful.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9885" windowHeight="6270"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11910" windowHeight="1800"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
     <sheet name="comment" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="0"/>
   <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
   <si>
     <t>flag</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -160,6 +160,22 @@
   </si>
   <si>
     <t>${FinancePlanUtils.getFinanceId(0)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>checkCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>validation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${ConstantUtils.getCorrectCheckCode()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${ConstantUtils.getCorrectValidation()}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -516,20 +532,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="11.5" customWidth="1"/>
-    <col min="8" max="8" width="16.125" customWidth="1"/>
+    <col min="8" max="8" width="11.5" customWidth="1"/>
+    <col min="10" max="10" width="16.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" customFormat="1">
+    <row r="1" spans="1:18" customFormat="1">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -546,37 +562,43 @@
         <v>13</v>
       </c>
       <c r="F1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" t="s">
         <v>14</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>15</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>16</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>17</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>18</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>19</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>20</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>21</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>22</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:16" customFormat="1">
+    <row r="2" spans="1:18" customFormat="1">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -593,31 +615,37 @@
         <v>28</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>10</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="K2">
+      <c r="M2">
         <v>50000</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="N2" s="2"/>
-      <c r="O2" t="s">
+      <c r="P2" s="2"/>
+      <c r="Q2" t="s">
         <v>29</v>
       </c>
     </row>
